--- a/Results_for_my_funcion.xlsx
+++ b/Results_for_my_funcion.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-2.354248688935409</v>
+        <v>28.14159265358979</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.150167056282348</v>
+        <v>26.14242563984552</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.946085423629287</v>
+        <v>24.22655725167393</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.742003790976225</v>
+        <v>22.39398748907501</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.537922158323164</v>
+        <v>20.64471635204877</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-1.333840525670103</v>
+        <v>18.97874384059521</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1.129758893017042</v>
+        <v>17.39606995471432</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.9256772603639805</v>
+        <v>15.89669469440612</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.7215956277109195</v>
+        <v>14.48061805967059</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.5175139950578584</v>
+        <v>13.14784005050775</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.313432362404797</v>
+        <v>11.89836066691757</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.1093507297517355</v>
+        <v>10.73217990890008</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.09473090290132546</v>
+        <v>9.649297776455265</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2988125355543865</v>
+        <v>8.64971426958313</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5028941682074479</v>
+        <v>7.73342938828367</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7069758008605094</v>
+        <v>6.900443132556889</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9110574335135704</v>
+        <v>6.150755502402788</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.115139066166631</v>
+        <v>5.484366497821364</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.319220698819693</v>
+        <v>4.901276118812617</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.523302331472754</v>
+        <v>4.401484365376548</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.727383964125815</v>
+        <v>3.984991237513158</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.931465596778876</v>
+        <v>3.651796735222447</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.135547229431938</v>
+        <v>3.401900858504411</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.339628862084999</v>
+        <v>3.235303607359056</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.54371049473806</v>
+        <v>3.152004981786378</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.747792127391121</v>
+        <v>3.152004981786378</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.951873760044182</v>
+        <v>3.235303607359056</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.155955392697244</v>
+        <v>3.401900858504412</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.360037025350305</v>
+        <v>3.651796735222447</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.564118658003366</v>
+        <v>3.984991237513158</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.768200290656428</v>
+        <v>4.40148436537655</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.972281923309489</v>
+        <v>4.901276118812618</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.17636355596255</v>
+        <v>5.484366497821364</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.380445188615611</v>
+        <v>6.150755502402788</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.584526821268672</v>
+        <v>6.900443132556889</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.788608453921734</v>
+        <v>7.733429388283672</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.992690086574795</v>
+        <v>8.64971426958313</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5.196771719227856</v>
+        <v>9.649297776455265</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5.400853351880918</v>
+        <v>10.73217990890008</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.604934984533979</v>
+        <v>11.89836066691758</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.80901661718704</v>
+        <v>13.14784005050775</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6.013098249840101</v>
+        <v>14.48061805967059</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6.217179882493162</v>
+        <v>15.89669469440612</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.421261515146223</v>
+        <v>17.39606995471432</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6.625343147799286</v>
+        <v>18.97874384059521</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6.829424780452347</v>
+        <v>20.64471635204877</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7.033506413105408</v>
+        <v>22.39398748907501</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7.237588045758469</v>
+        <v>24.22655725167393</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.44166967841153</v>
+        <v>26.14242563984552</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.645751311064591</v>
+        <v>28.14159265358979</v>
       </c>
     </row>
   </sheetData>
